--- a/ga_results.xlsx
+++ b/ga_results.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20.170569519778</v>
+        <v>20.2178659443106</v>
       </c>
       <c r="G2" t="n">
-        <v>20.15443428693844</v>
+        <v>20.18695418844027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02281866511375268</v>
+        <v>0.04371582438859124</v>
       </c>
     </row>
     <row r="3">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.61951439344765</v>
+        <v>20.65260277286945</v>
       </c>
       <c r="G3" t="n">
-        <v>20.58211021723597</v>
+        <v>20.65131071581309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05289749328795396</v>
+        <v>0.001827244612472864</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20.1142971866415</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20.1310029597547</v>
+        <v>20.12769199665389</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>20.0908911217606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0236255309066003</v>
+        <v>0.05204429638129344</v>
       </c>
     </row>
     <row r="5">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20.4356444455709</v>
+        <v>20.56924316921208</v>
       </c>
       <c r="G5" t="n">
-        <v>20.46383680455295</v>
+        <v>20.52215656251116</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03987001642770115</v>
+        <v>0.0665905178025801</v>
       </c>
     </row>
     <row r="6">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20.06491857722788</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>20.05685365495243</v>
+        <v>20.12744215675253</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.10585564064533</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01140552246142607</v>
+        <v>0.03052794384318087</v>
       </c>
     </row>
     <row r="7">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20.53050250249433</v>
+        <v>20.5979541601095</v>
       </c>
       <c r="G7" t="n">
-        <v>20.55348272978652</v>
+        <v>20.59402321753894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03249894910304018</v>
+        <v>0.005559192296201727</v>
       </c>
     </row>
   </sheetData>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.956059270435293</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.91328191793745</v>
+        <v>4.966065884407878</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>3.747495274408646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06049631206486414</v>
+        <v>1.72331908337017</v>
       </c>
     </row>
     <row r="3">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>38.37543721963749</v>
+        <v>48.47027693388423</v>
       </c>
       <c r="G3" t="n">
-        <v>43.5461129472903</v>
+        <v>48.93722851583684</v>
       </c>
       <c r="H3" t="n">
-        <v>7.312439740679971</v>
+        <v>0.6603692601689535</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.606770845576449</v>
+        <v>3.772134785261293</v>
       </c>
       <c r="G4" t="n">
-        <v>5.302282104611745</v>
+        <v>4.62502870908724</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4306121070621925</v>
+        <v>1.20617415434026</v>
       </c>
     </row>
     <row r="5">
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>59.16246361221594</v>
+        <v>52.12451251631646</v>
       </c>
       <c r="G5" t="n">
-        <v>55.28774905060145</v>
+        <v>46.68196099693849</v>
       </c>
       <c r="H5" t="n">
-        <v>5.479673883359727</v>
+        <v>7.696930172618638</v>
       </c>
     </row>
     <row r="6">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.950515994835456</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>3.464411595884797</v>
+        <v>3.146806933587787</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.932330840849623</v>
       </c>
       <c r="H6" t="n">
-        <v>2.101668996098339</v>
+        <v>1.110898563217994</v>
       </c>
     </row>
     <row r="7">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50.4283380089045</v>
+        <v>40.46402515269629</v>
       </c>
       <c r="G7" t="n">
-        <v>37.07458405887647</v>
+        <v>45.37420854951628</v>
       </c>
       <c r="H7" t="n">
-        <v>18.88505994472292</v>
+        <v>6.944047953522021</v>
       </c>
     </row>
   </sheetData>
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.642925440988366e-05</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1.080982946491295e-05</v>
+        <v>2.714646548002514e-05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.940822167384642e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>7.947066969915269e-06</v>
+        <v>1.094352933964755e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.426143573625895e-05</v>
+        <v>1.708726192296372e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>1.420798907885826e-05</v>
+        <v>1.61680862439041e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.421772061149051e-05</v>
+        <v>1.299910711529604e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.052543957964188e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.566913501238819e-05</v>
+        <v>3.30085597015706e-06</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>5.871750562102458e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.100998740575552e-05</v>
+        <v>3.635793999360827e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.705525364340408e-05</v>
+        <v>4.657754646032459e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>1.486093667829499e-05</v>
+        <v>3.318479810346048e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.103232812202643e-06</v>
+        <v>1.894020636372722e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34754864638198e-05</v>
+        <v>2.240678151458505e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>1.092254338162711e-05</v>
+        <v>1.787239083256728e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.610406730803477e-06</v>
+        <v>6.41259679960772e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.13231409725578e-05</v>
+        <v>2.080325871730759e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.990699981659758e-05</v>
+        <v>1.795682709703106e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.21394095947373e-05</v>
+        <v>4.025462201762687e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16.52955810307516</v>
+        <v>25.54247019873419</v>
       </c>
       <c r="G2" t="n">
-        <v>16.86988891941675</v>
+        <v>19.80711903832309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4813004561637856</v>
+        <v>8.111011396025654</v>
       </c>
     </row>
     <row r="3">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>83.13419865566161</v>
+        <v>68.45041091782085</v>
       </c>
       <c r="G3" t="n">
-        <v>79.65915327650907</v>
+        <v>70.32534692660103</v>
       </c>
       <c r="H3" t="n">
-        <v>4.914456305059477</v>
+        <v>2.651559932198614</v>
       </c>
     </row>
     <row r="4">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11.35975220924193</v>
+        <v>7.65996794738912</v>
       </c>
       <c r="G4" t="n">
-        <v>12.21863248588413</v>
+        <v>10.67292190289057</v>
       </c>
       <c r="H4" t="n">
-        <v>1.21464013568215</v>
+        <v>4.260960346675816</v>
       </c>
     </row>
     <row r="5">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>82.71073696434354</v>
+        <v>70.73575591276415</v>
       </c>
       <c r="G5" t="n">
-        <v>75.52144398448949</v>
+        <v>71.72860453201497</v>
       </c>
       <c r="H5" t="n">
-        <v>10.16719563598327</v>
+        <v>1.404099982727913</v>
       </c>
     </row>
     <row r="6">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16.80614179600052</v>
+        <v>14.51549873900537</v>
       </c>
       <c r="G6" t="n">
-        <v>13.15298758972583</v>
+        <v>14.68997775474981</v>
       </c>
       <c r="H6" t="n">
-        <v>5.166340223953979</v>
+        <v>0.2467505904153037</v>
       </c>
     </row>
     <row r="7">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>69.90898816556759</v>
+        <v>77.28056656144605</v>
       </c>
       <c r="G7" t="n">
-        <v>62.42326496263162</v>
+        <v>75.27913505317409</v>
       </c>
       <c r="H7" t="n">
-        <v>10.58641127776302</v>
+        <v>2.83045158315904</v>
       </c>
     </row>
   </sheetData>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>276602565214.2331</v>
+        <v>2076829545366.118</v>
       </c>
       <c r="G2" t="n">
-        <v>302197158721.7319</v>
+        <v>1574796517421.956</v>
       </c>
       <c r="H2" t="n">
-        <v>36196221261.73127</v>
+        <v>709981916877.8655</v>
       </c>
     </row>
     <row r="3">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36376470023102.12</v>
+        <v>93445778323201.11</v>
       </c>
       <c r="G3" t="n">
-        <v>31118998560095.7</v>
+        <v>66793677674856.2</v>
       </c>
       <c r="H3" t="n">
-        <v>7435187446773.202</v>
+        <v>37691762202622.14</v>
       </c>
     </row>
     <row r="4">
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>225145839608.543</v>
+        <v>3672213639143.392</v>
       </c>
       <c r="G4" t="n">
-        <v>735858006757.0192</v>
+        <v>3402557761539.608</v>
       </c>
       <c r="H4" t="n">
-        <v>722256073250.3301</v>
+        <v>381350999280.8906</v>
       </c>
     </row>
     <row r="5">
@@ -1608,13 +1608,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36652463296423.87</v>
+        <v>11591067642848.92</v>
       </c>
       <c r="G5" t="n">
-        <v>48518093917788.61</v>
+        <v>26137097278127.12</v>
       </c>
       <c r="H5" t="n">
-        <v>16780535750843.51</v>
+        <v>20571192388891.39</v>
       </c>
     </row>
     <row r="6">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>173384729272.7325</v>
+        <v>752255582095.6108</v>
       </c>
       <c r="G6" t="n">
-        <v>785113168267.8468</v>
+        <v>506620205808.7936</v>
       </c>
       <c r="H6" t="n">
-        <v>865114654916.2131</v>
+        <v>347380880543.4355</v>
       </c>
     </row>
     <row r="7">
@@ -1672,13 +1672,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64195412607520.2</v>
+        <v>92206865330941.78</v>
       </c>
       <c r="G7" t="n">
-        <v>52415716885559.51</v>
+        <v>100299916834471</v>
       </c>
       <c r="H7" t="n">
-        <v>16659005450625.13</v>
+        <v>11445303197275.06</v>
       </c>
     </row>
   </sheetData>
@@ -1765,13 +1765,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>361.8001052575737</v>
+        <v>363.6757002082422</v>
       </c>
       <c r="G2" t="n">
-        <v>476.4416501105211</v>
+        <v>329.9802514613245</v>
       </c>
       <c r="H2" t="n">
-        <v>162.1276275424417</v>
+        <v>47.65256060813851</v>
       </c>
     </row>
     <row r="3">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1905.294878198388</v>
+        <v>2137.568246011652</v>
       </c>
       <c r="G3" t="n">
-        <v>2052.690441547295</v>
+        <v>1891.433126194935</v>
       </c>
       <c r="H3" t="n">
-        <v>208.4488047216479</v>
+        <v>348.0876246211279</v>
       </c>
     </row>
     <row r="4">
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>394.3110692014479</v>
+        <v>510.1173623657482</v>
       </c>
       <c r="G4" t="n">
-        <v>369.1687073332146</v>
+        <v>313.7659478513783</v>
       </c>
       <c r="H4" t="n">
-        <v>35.55666914414778</v>
+        <v>277.6828333973634</v>
       </c>
     </row>
     <row r="5">
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2033.555583100147</v>
+        <v>1664.512474320582</v>
       </c>
       <c r="G5" t="n">
-        <v>1965.254613560107</v>
+        <v>1627.978198101781</v>
       </c>
       <c r="H5" t="n">
-        <v>96.59215744675703</v>
+        <v>51.66726892011302</v>
       </c>
     </row>
     <row r="6">
@@ -1893,13 +1893,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>297.2632218670915</v>
+        <v>162.5276958476975</v>
       </c>
       <c r="G6" t="n">
-        <v>331.8476950671416</v>
+        <v>215.4127620647739</v>
       </c>
       <c r="H6" t="n">
-        <v>48.90983104703965</v>
+        <v>74.79077789118868</v>
       </c>
     </row>
     <row r="7">
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1535.556909212489</v>
+        <v>1412.857100881671</v>
       </c>
       <c r="G7" t="n">
-        <v>1721.250174151119</v>
+        <v>1799.082757785249</v>
       </c>
       <c r="H7" t="n">
-        <v>262.6099337175517</v>
+        <v>546.2055621294969</v>
       </c>
     </row>
   </sheetData>
@@ -2018,13 +2018,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.656206531767789</v>
+        <v>0.5288069046679472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9243527048434216</v>
+        <v>0.7465926346874936</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3792159546620029</v>
+        <v>0.3079955330849677</v>
       </c>
     </row>
     <row r="3">
@@ -2050,13 +2050,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13.56350010779959</v>
+        <v>10.99166030221468</v>
       </c>
       <c r="G3" t="n">
-        <v>13.28742522774846</v>
+        <v>12.27298035994546</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3904288395988336</v>
+        <v>1.81206020338354</v>
       </c>
     </row>
     <row r="4">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.521720093235881</v>
+        <v>0.5534380795658801</v>
       </c>
       <c r="G4" t="n">
-        <v>1.030535422589176</v>
+        <v>0.8583429664725482</v>
       </c>
       <c r="H4" t="n">
-        <v>0.694640022858333</v>
+        <v>0.4312006262972448</v>
       </c>
     </row>
     <row r="5">
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15.0618030051795</v>
+        <v>13.15998026844058</v>
       </c>
       <c r="G5" t="n">
-        <v>13.07038250628111</v>
+        <v>13.38591367324682</v>
       </c>
       <c r="H5" t="n">
-        <v>2.816293877929893</v>
+        <v>0.3195180852701121</v>
       </c>
     </row>
     <row r="6">
@@ -2146,13 +2146,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.050889218179377</v>
+        <v>1.071235334849767</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7262864862791821</v>
+        <v>1.29409407897542</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4590575858366133</v>
+        <v>0.3151698584359331</v>
       </c>
     </row>
     <row r="7">
@@ -2178,13 +2178,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.092223531822778</v>
+        <v>15.3043825036381</v>
       </c>
       <c r="G7" t="n">
-        <v>10.89526734295401</v>
+        <v>13.39268487266198</v>
       </c>
       <c r="H7" t="n">
-        <v>3.964102573627754</v>
+        <v>2.703548716882948</v>
       </c>
     </row>
   </sheetData>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.843634977141413</v>
+        <v>18.17085708740551</v>
       </c>
       <c r="G2" t="n">
-        <v>13.84340182005891</v>
+        <v>15.85367834603257</v>
       </c>
       <c r="H2" t="n">
-        <v>7.070738077957231</v>
+        <v>3.276985602492228</v>
       </c>
     </row>
     <row r="3">
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>37.34203569311395</v>
+        <v>48.83156133954012</v>
       </c>
       <c r="G3" t="n">
-        <v>50.71403214520969</v>
+        <v>49.60339979606034</v>
       </c>
       <c r="H3" t="n">
-        <v>18.91085873855871</v>
+        <v>1.091544413172014</v>
       </c>
     </row>
     <row r="4">
@@ -2335,13 +2335,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21.47286515991064</v>
+        <v>5.197889185269737</v>
       </c>
       <c r="G4" t="n">
-        <v>15.19863603261646</v>
+        <v>10.40432289733648</v>
       </c>
       <c r="H4" t="n">
-        <v>8.873099925255739</v>
+        <v>7.363009167201283</v>
       </c>
     </row>
     <row r="5">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50.33389065956322</v>
+        <v>68.01655402127686</v>
       </c>
       <c r="G5" t="n">
-        <v>62.28187232002325</v>
+        <v>64.8299534759295</v>
       </c>
       <c r="H5" t="n">
-        <v>16.89699770720759</v>
+        <v>4.506533709095738</v>
       </c>
     </row>
     <row r="6">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.344333231714604</v>
+        <v>6.521603122479632</v>
       </c>
       <c r="G6" t="n">
-        <v>7.402603604214924</v>
+        <v>17.44042632630886</v>
       </c>
       <c r="H6" t="n">
-        <v>2.746020373671704</v>
+        <v>15.44154786000934</v>
       </c>
     </row>
     <row r="7">
@@ -2431,13 +2431,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>62.75607599689859</v>
+        <v>59.24690064990637</v>
       </c>
       <c r="G7" t="n">
-        <v>61.95143254290038</v>
+        <v>55.03012816072574</v>
       </c>
       <c r="H7" t="n">
-        <v>1.137937685519005</v>
+        <v>5.963416843641008</v>
       </c>
     </row>
   </sheetData>
